--- a/planificacion Yo programo.xlsx
+++ b/planificacion Yo programo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="43">
   <si>
     <t xml:space="preserve">LUNES </t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>5 horas diarias</t>
+  </si>
+  <si>
+    <t>cambio</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1017,9 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
